--- a/public/Site Template.xlsx
+++ b/public/Site Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Kuliah\Magang\PKL\Development\frontend-ran-dashboard\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CFB060F-D510-4120-B048-9EFBA1D826E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA8CA6F-7540-4675-8DDA-3F84DBE3D4D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,18 +33,9 @@
     <t>Kabupaten</t>
   </si>
   <si>
-    <t>DO/Subdept</t>
-  </si>
-  <si>
-    <t>NS/ Departement</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
-    <t>sitename</t>
-  </si>
-  <si>
     <t>BKL001</t>
   </si>
   <si>
@@ -61,6 +52,15 @@
   </si>
   <si>
     <t>Pantai Panjang</t>
+  </si>
+  <si>
+    <t>Sitename</t>
+  </si>
+  <si>
+    <t>DO/Subdepartemen</t>
+  </si>
+  <si>
+    <t>NS/Departemen</t>
   </si>
 </sst>
 </file>
@@ -420,7 +420,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -435,56 +435,56 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/public/Site Template.xlsx
+++ b/public/Site Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Kuliah\Magang\PKL\Development\frontend-ran-dashboard\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA8CA6F-7540-4675-8DDA-3F84DBE3D4D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FBE5055-0D89-4F95-B5ED-AD34B057B371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,15 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>Siteid</t>
   </si>
   <si>
     <t>Kabupaten</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
   <si>
     <t>BKL001</t>
@@ -125,16 +122,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
@@ -417,74 +411,70 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.77734375" customWidth="1"/>
-    <col min="2" max="2" width="21.109375" customWidth="1"/>
-    <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="16.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1"/>
-    <col min="6" max="6" width="23" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="16.77734375" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+    <col min="5" max="5" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
-        <v>3</v>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/public/Site Template.xlsx
+++ b/public/Site Template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Kuliah\Magang\PKL\Development\frontend-ran-dashboard\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Kuliah\PKL\Development\frontend-ran-dashboard\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FBE5055-0D89-4F95-B5ED-AD34B057B371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C6C96B-AC5A-478B-A225-E5CD45B0A486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,6 +19,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -414,7 +425,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
